--- a/data_processed/20250716/BTCUSDVOLSURFACE_REGULARIZED_20250716.xlsx
+++ b/data_processed/20250716/BTCUSDVOLSURFACE_REGULARIZED_20250716.xlsx
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -13442,7 +13442,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -44969,7 +44969,7 @@
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -45888,7 +45888,7 @@
       </c>
       <c r="G1747" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -47483,7 +47483,7 @@
       </c>
       <c r="G1806" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
@@ -47686,7 +47686,7 @@
       </c>
       <c r="G1813" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,CS,BF</t>
         </is>
       </c>
     </row>
